--- a/final_data_pipeline/output/311514longform.xlsx
+++ b/final_data_pipeline/output/311514longform.xlsx
@@ -789,7 +789,7 @@
         <v>71</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -884,7 +884,7 @@
         <v>71</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -973,7 +973,7 @@
         <v>71</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1062,7 +1062,7 @@
         <v>71</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1151,7 +1151,7 @@
         <v>71</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1240,7 +1240,7 @@
         <v>71</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1329,7 +1329,7 @@
         <v>71</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1418,7 +1418,7 @@
         <v>71</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1507,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1596,7 +1596,7 @@
         <v>71</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1691,7 +1691,7 @@
         <v>71</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1780,7 +1780,7 @@
         <v>71</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1869,7 +1869,7 @@
         <v>71</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1958,7 +1958,7 @@
         <v>71</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2047,7 +2047,7 @@
         <v>71</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -3946,7 +3946,7 @@
         <v>71</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4041,7 +4041,7 @@
         <v>71</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4136,7 +4136,7 @@
         <v>71</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4225,7 +4225,7 @@
         <v>71</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4314,7 +4314,7 @@
         <v>71</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4403,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4492,7 +4492,7 @@
         <v>71</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4581,7 +4581,7 @@
         <v>71</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4670,7 +4670,7 @@
         <v>71</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4759,7 +4759,7 @@
         <v>71</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -5299,7 +5299,7 @@
         <v>71</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5388,7 +5388,7 @@
         <v>71</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5477,7 +5477,7 @@
         <v>71</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5572,7 +5572,7 @@
         <v>71</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5661,7 +5661,7 @@
         <v>71</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5750,7 +5750,7 @@
         <v>71</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5839,7 +5839,7 @@
         <v>71</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -5928,7 +5928,7 @@
         <v>71</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6017,7 +6017,7 @@
         <v>71</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6106,7 +6106,7 @@
         <v>71</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -6201,7 +6201,7 @@
         <v>71</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6296,7 +6296,7 @@
         <v>71</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6385,7 +6385,7 @@
         <v>71</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6474,7 +6474,7 @@
         <v>71</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6563,7 +6563,7 @@
         <v>71</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -7554,7 +7554,7 @@
         <v>71</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -7643,7 +7643,7 @@
         <v>71</v>
       </c>
       <c r="AA78">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB78">
         <v>8000</v>
@@ -7738,7 +7738,7 @@
         <v>71</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB79">
         <v>8000</v>
@@ -7827,7 +7827,7 @@
         <v>71</v>
       </c>
       <c r="AA80">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB80">
         <v>8000</v>
@@ -7916,7 +7916,7 @@
         <v>71</v>
       </c>
       <c r="AA81">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB81">
         <v>8000</v>
@@ -8456,7 +8456,7 @@
         <v>71</v>
       </c>
       <c r="AA87">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB87">
         <v>8000</v>
@@ -8545,7 +8545,7 @@
         <v>71</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB88">
         <v>8000</v>
@@ -8640,7 +8640,7 @@
         <v>71</v>
       </c>
       <c r="AA89">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB89">
         <v>8000</v>
@@ -8729,7 +8729,7 @@
         <v>71</v>
       </c>
       <c r="AA90">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB90">
         <v>8000</v>
@@ -8818,7 +8818,7 @@
         <v>71</v>
       </c>
       <c r="AA91">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB91">
         <v>8000</v>
